--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.001188919803716108</v>
+        <v>0.001916437105737102</v>
       </c>
       <c r="E2">
-        <v>0.001188919803716108</v>
+        <v>0.001916437105737102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0001495050918204272</v>
+        <v>1.297430491786452E-06</v>
       </c>
       <c r="E3">
-        <v>0.0001495050918204272</v>
+        <v>1.297430491786452E-06</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.110965839773954E-15</v>
+        <v>1.213798302970531E-16</v>
       </c>
       <c r="E4">
-        <v>3.110965839773954E-15</v>
+        <v>1.213798302970531E-16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.918653860492024E-15</v>
+        <v>1.292785139986398E-14</v>
       </c>
       <c r="E5">
-        <v>3.918653860492024E-15</v>
+        <v>1.292785139986398E-14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.01072712671568767</v>
+        <v>0.01067046432653596</v>
       </c>
       <c r="E6">
-        <v>0.01072712671568767</v>
+        <v>0.01067046432653596</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.999999999751501</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2.484989991557995E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9926934385465593</v>
+        <v>0.9346328624543723</v>
       </c>
       <c r="E8">
-        <v>0.007306561453440663</v>
+        <v>0.06536713754562773</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9998070170541954</v>
+        <v>0.9999990856797381</v>
       </c>
       <c r="E9">
-        <v>0.0001929829458046095</v>
+        <v>9.143202619465995E-07</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999979714922</v>
+        <v>0.9999778045970797</v>
       </c>
       <c r="E11">
-        <v>2.028507806173252E-09</v>
+        <v>2.219540292025535E-05</v>
       </c>
       <c r="F11">
-        <v>0.001965266652405262</v>
+        <v>0.008027281612157822</v>
       </c>
       <c r="G11">
         <v>1</v>
